--- a/data/pca/factorExposure/factorExposure_2009-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01758904807967822</v>
+        <v>-0.01692502217089447</v>
       </c>
       <c r="C2">
-        <v>0.002052181159062486</v>
+        <v>0.001281459176919392</v>
       </c>
       <c r="D2">
-        <v>0.01001038152136976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01037064823023122</v>
+      </c>
+      <c r="E2">
+        <v>0.003302335475460378</v>
+      </c>
+      <c r="F2">
+        <v>0.01223870327971726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08863618536655317</v>
+        <v>-0.09140643122071589</v>
       </c>
       <c r="C4">
-        <v>0.02030517121402055</v>
+        <v>0.0157024379077055</v>
       </c>
       <c r="D4">
-        <v>0.07944344679382602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08283580667772264</v>
+      </c>
+      <c r="E4">
+        <v>0.02803716609443234</v>
+      </c>
+      <c r="F4">
+        <v>-0.03378576736230041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.180491253511745e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.109363152833289e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002195241522802402</v>
+      </c>
+      <c r="E5">
+        <v>0.0001805518777303689</v>
+      </c>
+      <c r="F5">
+        <v>2.589616424596561e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1545166784040729</v>
+        <v>-0.1624596272861891</v>
       </c>
       <c r="C6">
-        <v>0.03236487099382605</v>
+        <v>0.03110531082391783</v>
       </c>
       <c r="D6">
-        <v>-0.03497339710216248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02515578852808148</v>
+      </c>
+      <c r="E6">
+        <v>0.01296609165012288</v>
+      </c>
+      <c r="F6">
+        <v>-0.03990606677725311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05741843720204828</v>
+        <v>-0.06043248041280538</v>
       </c>
       <c r="C7">
-        <v>0.001631061636322574</v>
+        <v>-0.00155830092647684</v>
       </c>
       <c r="D7">
-        <v>0.04730166138417005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05256956217890175</v>
+      </c>
+      <c r="E7">
+        <v>0.01314399629723284</v>
+      </c>
+      <c r="F7">
+        <v>-0.04887092188005297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06071749072203544</v>
+        <v>-0.05697042377322018</v>
       </c>
       <c r="C8">
-        <v>-0.009452823350096558</v>
+        <v>-0.01154255570331869</v>
       </c>
       <c r="D8">
-        <v>0.02608841171744284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03055374148621504</v>
+      </c>
+      <c r="E8">
+        <v>0.01974588356412066</v>
+      </c>
+      <c r="F8">
+        <v>0.02878074393241902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06893013715602585</v>
+        <v>-0.07121899651902168</v>
       </c>
       <c r="C9">
-        <v>0.0161021507670981</v>
+        <v>0.01115471904066992</v>
       </c>
       <c r="D9">
-        <v>0.0819788978936469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08611142572833472</v>
+      </c>
+      <c r="E9">
+        <v>0.02623416752153515</v>
+      </c>
+      <c r="F9">
+        <v>-0.04974612063041207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08599085071278685</v>
+        <v>-0.08704152588753636</v>
       </c>
       <c r="C10">
-        <v>0.0181008957263366</v>
+        <v>0.02247177877856138</v>
       </c>
       <c r="D10">
-        <v>-0.168150296462113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594141197156682</v>
+      </c>
+      <c r="E10">
+        <v>-0.03360583939161449</v>
+      </c>
+      <c r="F10">
+        <v>0.06022135775075092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08946153460220933</v>
+        <v>-0.08622506003537229</v>
       </c>
       <c r="C11">
-        <v>0.01747998546730527</v>
+        <v>0.01219455648286739</v>
       </c>
       <c r="D11">
-        <v>0.1124993312631695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1184246908586554</v>
+      </c>
+      <c r="E11">
+        <v>0.05250025472079663</v>
+      </c>
+      <c r="F11">
+        <v>-0.02603247360966538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09706012678222777</v>
+        <v>-0.09105626599966321</v>
       </c>
       <c r="C12">
-        <v>0.01625777878241575</v>
+        <v>0.01019249131099115</v>
       </c>
       <c r="D12">
-        <v>0.1196427874086513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1339950141547513</v>
+      </c>
+      <c r="E12">
+        <v>0.05359380636022969</v>
+      </c>
+      <c r="F12">
+        <v>-0.03237432067712504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04466887844139259</v>
+        <v>-0.04399767835459855</v>
       </c>
       <c r="C13">
-        <v>0.006756020137253772</v>
+        <v>0.003256467043745789</v>
       </c>
       <c r="D13">
-        <v>0.04731358628087747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05442801848863359</v>
+      </c>
+      <c r="E13">
+        <v>0.0008971772090631405</v>
+      </c>
+      <c r="F13">
+        <v>-0.004646795956342755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01979061179630775</v>
+        <v>-0.02322237280392529</v>
       </c>
       <c r="C14">
-        <v>0.01516637479037419</v>
+        <v>0.01400822565498254</v>
       </c>
       <c r="D14">
-        <v>0.03188590968935857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03288153396436339</v>
+      </c>
+      <c r="E14">
+        <v>0.02169557329670848</v>
+      </c>
+      <c r="F14">
+        <v>-0.01196734880259536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03417015417728853</v>
+        <v>-0.03438260353772691</v>
       </c>
       <c r="C15">
-        <v>0.007814538537686632</v>
+        <v>0.006094962122968235</v>
       </c>
       <c r="D15">
-        <v>0.04643220155917188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0464334931102964</v>
+      </c>
+      <c r="E15">
+        <v>0.008829828004370302</v>
+      </c>
+      <c r="F15">
+        <v>-0.03013856895299454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07325402350934919</v>
+        <v>-0.07105186030144175</v>
       </c>
       <c r="C16">
-        <v>0.007357552730416543</v>
+        <v>0.001930984556655476</v>
       </c>
       <c r="D16">
-        <v>0.1163640755825563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1294839228500317</v>
+      </c>
+      <c r="E16">
+        <v>0.06510520759995937</v>
+      </c>
+      <c r="F16">
+        <v>-0.0296433629915742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001335224738698279</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004838919446110185</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00230988617979167</v>
+      </c>
+      <c r="E17">
+        <v>0.001725950522868589</v>
+      </c>
+      <c r="F17">
+        <v>0.002100907398877316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02567648932616775</v>
+        <v>-0.04379212717424764</v>
       </c>
       <c r="C18">
-        <v>-0.001479663436256562</v>
+        <v>-0.001218423189024882</v>
       </c>
       <c r="D18">
-        <v>0.02272701283321594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01682868552266371</v>
+      </c>
+      <c r="E18">
+        <v>-0.003294883045534123</v>
+      </c>
+      <c r="F18">
+        <v>0.009531576800373661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06402944581475831</v>
+        <v>-0.0627588504849485</v>
       </c>
       <c r="C20">
-        <v>0.00586747627479833</v>
+        <v>0.002107030126403167</v>
       </c>
       <c r="D20">
-        <v>0.07331221671088638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07825943805588015</v>
+      </c>
+      <c r="E20">
+        <v>0.06305995214558437</v>
+      </c>
+      <c r="F20">
+        <v>-0.03143192748615938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04126583562569491</v>
+        <v>-0.04311406264951863</v>
       </c>
       <c r="C21">
-        <v>0.01036392501475491</v>
+        <v>0.007633776076953982</v>
       </c>
       <c r="D21">
-        <v>0.03543541556191484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03649931813320389</v>
+      </c>
+      <c r="E21">
+        <v>0.004337862100667164</v>
+      </c>
+      <c r="F21">
+        <v>0.0237163578257928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03973351790352488</v>
+        <v>-0.04170329469599751</v>
       </c>
       <c r="C22">
-        <v>0.001103854801388545</v>
+        <v>0.0008231336205458204</v>
       </c>
       <c r="D22">
-        <v>0.001288295181573613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007470237400785964</v>
+      </c>
+      <c r="E22">
+        <v>0.03550926470103789</v>
+      </c>
+      <c r="F22">
+        <v>0.05151943189829467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03969634272831923</v>
+        <v>-0.04167210616584147</v>
       </c>
       <c r="C23">
-        <v>0.001091436463496689</v>
+        <v>0.0008112159100169611</v>
       </c>
       <c r="D23">
-        <v>0.001307048169641308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007484268331666591</v>
+      </c>
+      <c r="E23">
+        <v>0.03553883408802003</v>
+      </c>
+      <c r="F23">
+        <v>0.05157419765553339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08022105421024942</v>
+        <v>-0.07669051698118487</v>
       </c>
       <c r="C24">
-        <v>0.008017619187108334</v>
+        <v>0.002682505929245875</v>
       </c>
       <c r="D24">
-        <v>0.1170550293336837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1223139528154833</v>
+      </c>
+      <c r="E24">
+        <v>0.05193417496194429</v>
+      </c>
+      <c r="F24">
+        <v>-0.03234057416489381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08559632859275979</v>
+        <v>-0.08207287387786225</v>
       </c>
       <c r="C25">
-        <v>0.01052953407567017</v>
+        <v>0.00570002251779794</v>
       </c>
       <c r="D25">
-        <v>0.10494822859177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1107288183407054</v>
+      </c>
+      <c r="E25">
+        <v>0.03532871455510557</v>
+      </c>
+      <c r="F25">
+        <v>-0.02868269502541703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05767808550754813</v>
+        <v>-0.06102907671914824</v>
       </c>
       <c r="C26">
-        <v>0.01842585595559378</v>
+        <v>0.0152955039558792</v>
       </c>
       <c r="D26">
-        <v>0.03732912682755934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04633461701246192</v>
+      </c>
+      <c r="E26">
+        <v>0.03464281923083902</v>
+      </c>
+      <c r="F26">
+        <v>0.006307039623240571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1368612994171185</v>
+        <v>-0.1454496406632662</v>
       </c>
       <c r="C28">
-        <v>0.01834062854664936</v>
+        <v>0.02556893350847712</v>
       </c>
       <c r="D28">
-        <v>-0.2617224750490284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2571858035556251</v>
+      </c>
+      <c r="E28">
+        <v>-0.06793691608293827</v>
+      </c>
+      <c r="F28">
+        <v>-0.003903172049305505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02573727057557839</v>
+        <v>-0.02819802568313693</v>
       </c>
       <c r="C29">
-        <v>0.009747899830735486</v>
+        <v>0.009079688871162072</v>
       </c>
       <c r="D29">
-        <v>0.03008762721527964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03020274090978086</v>
+      </c>
+      <c r="E29">
+        <v>0.01772711007271233</v>
+      </c>
+      <c r="F29">
+        <v>0.01383075582200527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05799586902335988</v>
+        <v>-0.05545279393910063</v>
       </c>
       <c r="C30">
-        <v>0.007815798891817086</v>
+        <v>0.003022221587765484</v>
       </c>
       <c r="D30">
-        <v>0.0794613175829991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08782031959620369</v>
+      </c>
+      <c r="E30">
+        <v>0.01443947720548366</v>
+      </c>
+      <c r="F30">
+        <v>-0.0817462401908626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05043561719640301</v>
+        <v>-0.0509714294926724</v>
       </c>
       <c r="C31">
-        <v>0.01799851370091543</v>
+        <v>0.01648829278800665</v>
       </c>
       <c r="D31">
-        <v>0.02174786069616553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02506302639224351</v>
+      </c>
+      <c r="E31">
+        <v>0.03005930220705285</v>
+      </c>
+      <c r="F31">
+        <v>0.001044514894695846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04664072279487013</v>
+        <v>-0.05096237821815112</v>
       </c>
       <c r="C32">
-        <v>0.002384835548115424</v>
+        <v>-0.001095874140091748</v>
       </c>
       <c r="D32">
-        <v>0.02837859301474539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03289748082682785</v>
+      </c>
+      <c r="E32">
+        <v>0.03526361889011232</v>
+      </c>
+      <c r="F32">
+        <v>-0.003288917456316143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08940715595877435</v>
+        <v>-0.08965188308613217</v>
       </c>
       <c r="C33">
-        <v>0.0139458575904935</v>
+        <v>0.008203991172809516</v>
       </c>
       <c r="D33">
-        <v>0.09209113639086276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1046129371339574</v>
+      </c>
+      <c r="E33">
+        <v>0.04931019556982236</v>
+      </c>
+      <c r="F33">
+        <v>-0.04448429158390133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0684566633418302</v>
+        <v>-0.06661976111565743</v>
       </c>
       <c r="C34">
-        <v>0.0159498629361331</v>
+        <v>0.01113724768599038</v>
       </c>
       <c r="D34">
-        <v>0.09880187638568476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1108941255159546</v>
+      </c>
+      <c r="E34">
+        <v>0.03990414017209998</v>
+      </c>
+      <c r="F34">
+        <v>-0.03689408611814374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02630829160527972</v>
+        <v>-0.02778715145150231</v>
       </c>
       <c r="C35">
-        <v>0.004371833767743178</v>
+        <v>0.003897274151959451</v>
       </c>
       <c r="D35">
-        <v>0.008492804994382621</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01144965785320429</v>
+      </c>
+      <c r="E35">
+        <v>0.01621086903467513</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001137472898166715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02421742758580878</v>
+        <v>-0.02859887955841107</v>
       </c>
       <c r="C36">
-        <v>0.008605710674654215</v>
+        <v>0.007381986996983147</v>
       </c>
       <c r="D36">
-        <v>0.03817058623709429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03979320402203382</v>
+      </c>
+      <c r="E36">
+        <v>0.01975705758899023</v>
+      </c>
+      <c r="F36">
+        <v>-0.01528410409591745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002391595021941528</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007527526739276921</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003192480284228807</v>
+      </c>
+      <c r="E37">
+        <v>0.0008414927751141356</v>
+      </c>
+      <c r="F37">
+        <v>0.001213583461576632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1088972870152366</v>
+        <v>-0.09824054515021154</v>
       </c>
       <c r="C39">
-        <v>0.02334054451846703</v>
+        <v>0.01688078770341876</v>
       </c>
       <c r="D39">
-        <v>0.1505372332957372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1523933334234452</v>
+      </c>
+      <c r="E39">
+        <v>0.06387525839759149</v>
+      </c>
+      <c r="F39">
+        <v>-0.0237744915088384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03880602180185329</v>
+        <v>-0.04456057679962704</v>
       </c>
       <c r="C40">
-        <v>0.009828671436325275</v>
+        <v>0.008708961067894708</v>
       </c>
       <c r="D40">
-        <v>0.02502157798857187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03241330694603024</v>
+      </c>
+      <c r="E40">
+        <v>0.004344655654248034</v>
+      </c>
+      <c r="F40">
+        <v>0.01671026556988213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02518042461241518</v>
+        <v>-0.02759585912450324</v>
       </c>
       <c r="C41">
-        <v>0.007911742784505175</v>
+        <v>0.007182088907074836</v>
       </c>
       <c r="D41">
-        <v>0.007966613113804165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01008743107309954</v>
+      </c>
+      <c r="E41">
+        <v>0.01400537926050183</v>
+      </c>
+      <c r="F41">
+        <v>0.007084687178575769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04116842412488123</v>
+        <v>-0.03984962024323377</v>
       </c>
       <c r="C43">
-        <v>0.008576858959146826</v>
+        <v>0.007944736850767487</v>
       </c>
       <c r="D43">
-        <v>0.01814706283595561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02012633013703878</v>
+      </c>
+      <c r="E43">
+        <v>0.02838724114673038</v>
+      </c>
+      <c r="F43">
+        <v>0.01580286312399698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06134785672965162</v>
+        <v>-0.07254353061592908</v>
       </c>
       <c r="C44">
-        <v>0.02238040661055723</v>
+        <v>0.01877093378656989</v>
       </c>
       <c r="D44">
-        <v>0.09097688994135618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08960124601666616</v>
+      </c>
+      <c r="E44">
+        <v>0.05443281682872531</v>
+      </c>
+      <c r="F44">
+        <v>-0.1695740015417809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02038892236552817</v>
+        <v>-0.02367525662003202</v>
       </c>
       <c r="C46">
-        <v>0.004441309627061261</v>
+        <v>0.003377105943358299</v>
       </c>
       <c r="D46">
-        <v>0.009437878661152487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01290833698948605</v>
+      </c>
+      <c r="E46">
+        <v>0.03043126695612568</v>
+      </c>
+      <c r="F46">
+        <v>0.005258064969130695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05379258847774786</v>
+        <v>-0.05320543225738973</v>
       </c>
       <c r="C47">
-        <v>0.006298929020328106</v>
+        <v>0.005043765216998839</v>
       </c>
       <c r="D47">
-        <v>0.006796657915601378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01111863309678522</v>
+      </c>
+      <c r="E47">
+        <v>0.02584010458062203</v>
+      </c>
+      <c r="F47">
+        <v>0.03093525156887594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0481255274861573</v>
+        <v>-0.05149970131113161</v>
       </c>
       <c r="C48">
-        <v>0.005595773189552545</v>
+        <v>0.002895938633354578</v>
       </c>
       <c r="D48">
-        <v>0.04834470719394673</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05112957924994582</v>
+      </c>
+      <c r="E48">
+        <v>-0.002645446553716135</v>
+      </c>
+      <c r="F48">
+        <v>-0.01322210413303396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1976974059853027</v>
+        <v>-0.1999302378625638</v>
       </c>
       <c r="C49">
-        <v>0.02501185161667356</v>
+        <v>0.02274708561295002</v>
       </c>
       <c r="D49">
-        <v>-0.01076026948537945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005286079349220488</v>
+      </c>
+      <c r="E49">
+        <v>0.02779424861460335</v>
+      </c>
+      <c r="F49">
+        <v>-0.05057596747703336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04917975671439476</v>
+        <v>-0.05168760293273841</v>
       </c>
       <c r="C50">
-        <v>0.01377793958846187</v>
+        <v>0.01231267061605013</v>
       </c>
       <c r="D50">
-        <v>0.02209833862355458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02515274550916123</v>
+      </c>
+      <c r="E50">
+        <v>0.03317678440679171</v>
+      </c>
+      <c r="F50">
+        <v>-0.009859430023130954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1540899864630577</v>
+        <v>-0.1472061910994784</v>
       </c>
       <c r="C52">
-        <v>0.02295003608848097</v>
+        <v>0.0203558314822317</v>
       </c>
       <c r="D52">
-        <v>0.04185757949707294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04469302536929485</v>
+      </c>
+      <c r="E52">
+        <v>0.02114472471471359</v>
+      </c>
+      <c r="F52">
+        <v>-0.04153804547622035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748908343879948</v>
+        <v>-0.1683941072130367</v>
       </c>
       <c r="C53">
-        <v>0.02473063746550439</v>
+        <v>0.0237937764744858</v>
       </c>
       <c r="D53">
-        <v>0.005031730706272544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007833971061098888</v>
+      </c>
+      <c r="E53">
+        <v>0.02750541819498585</v>
+      </c>
+      <c r="F53">
+        <v>-0.07513807007013819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01592153092426003</v>
+        <v>-0.0184616784798147</v>
       </c>
       <c r="C54">
-        <v>0.0119167257871061</v>
+        <v>0.01097088116475831</v>
       </c>
       <c r="D54">
-        <v>0.02972153060836394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02876887472637742</v>
+      </c>
+      <c r="E54">
+        <v>0.02089989942480646</v>
+      </c>
+      <c r="F54">
+        <v>0.002913660462802546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1187067939140062</v>
+        <v>-0.1162354208793325</v>
       </c>
       <c r="C55">
-        <v>0.02145606930272584</v>
+        <v>0.0206012930532891</v>
       </c>
       <c r="D55">
-        <v>0.002432204884549013</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009951184964320552</v>
+      </c>
+      <c r="E55">
+        <v>0.02589206653488026</v>
+      </c>
+      <c r="F55">
+        <v>-0.04622611875341508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1805672150044826</v>
+        <v>-0.1751384601134723</v>
       </c>
       <c r="C56">
-        <v>0.02256998290509554</v>
+        <v>0.02193102719233085</v>
       </c>
       <c r="D56">
-        <v>-0.007299326466332386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001249112556874323</v>
+      </c>
+      <c r="E56">
+        <v>0.03068756446736785</v>
+      </c>
+      <c r="F56">
+        <v>-0.05508887469506923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0445433695781467</v>
+        <v>-0.04386868808308505</v>
       </c>
       <c r="C58">
-        <v>0.004145163301930712</v>
+        <v>-0.000296144340891978</v>
       </c>
       <c r="D58">
-        <v>0.06704255406942146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07625349490387334</v>
+      </c>
+      <c r="E58">
+        <v>0.03623980912431377</v>
+      </c>
+      <c r="F58">
+        <v>0.03454216461705362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1626437830512001</v>
+        <v>-0.1690233122787122</v>
       </c>
       <c r="C59">
-        <v>0.02015207706794047</v>
+        <v>0.02589462673438766</v>
       </c>
       <c r="D59">
-        <v>-0.2216974114550315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.216200350251974</v>
+      </c>
+      <c r="E59">
+        <v>-0.05199372706938901</v>
+      </c>
+      <c r="F59">
+        <v>0.04185498161007151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2375150809918317</v>
+        <v>-0.2294220729715059</v>
       </c>
       <c r="C60">
-        <v>0.006868538036080516</v>
+        <v>0.002928498414840926</v>
       </c>
       <c r="D60">
-        <v>0.03740525488034399</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0397405432754846</v>
+      </c>
+      <c r="E60">
+        <v>-0.0003048146611346229</v>
+      </c>
+      <c r="F60">
+        <v>-0.006286896901129137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08027666253027095</v>
+        <v>-0.07435612765163375</v>
       </c>
       <c r="C61">
-        <v>0.01724244181204477</v>
+        <v>0.0116783549734466</v>
       </c>
       <c r="D61">
-        <v>0.112433371472091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.11786799259546</v>
+      </c>
+      <c r="E61">
+        <v>0.04278217444371987</v>
+      </c>
+      <c r="F61">
+        <v>-0.01082512501897652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1727646114701356</v>
+        <v>-0.1682917062626899</v>
       </c>
       <c r="C62">
-        <v>0.02611348687479095</v>
+        <v>0.02441502509384407</v>
       </c>
       <c r="D62">
-        <v>0.0005254228724991122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008319141862559857</v>
+      </c>
+      <c r="E62">
+        <v>0.03383003012776899</v>
+      </c>
+      <c r="F62">
+        <v>-0.04184300852731795</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04256392914622278</v>
+        <v>-0.04635490854973581</v>
       </c>
       <c r="C63">
-        <v>0.005742783118897895</v>
+        <v>0.002756312200957861</v>
       </c>
       <c r="D63">
-        <v>0.05115964855094815</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0609902440016107</v>
+      </c>
+      <c r="E63">
+        <v>0.026669678904116</v>
+      </c>
+      <c r="F63">
+        <v>-0.001215655794541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1155161538481471</v>
+        <v>-0.1123868797924695</v>
       </c>
       <c r="C64">
-        <v>0.01843861987184315</v>
+        <v>0.01481209040241701</v>
       </c>
       <c r="D64">
-        <v>0.03491420177754461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04270303280355658</v>
+      </c>
+      <c r="E64">
+        <v>0.02785684626816022</v>
+      </c>
+      <c r="F64">
+        <v>-0.02708039894327396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1453961368605357</v>
+        <v>-0.1527192887774772</v>
       </c>
       <c r="C65">
-        <v>0.0381164852224274</v>
+        <v>0.03764970087084604</v>
       </c>
       <c r="D65">
-        <v>-0.05607613328559508</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04540724418491582</v>
+      </c>
+      <c r="E65">
+        <v>0.006289865301146281</v>
+      </c>
+      <c r="F65">
+        <v>-0.03694068956429233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1309228732297863</v>
+        <v>-0.1175024927414583</v>
       </c>
       <c r="C66">
-        <v>0.02184278247611822</v>
+        <v>0.01498065970356061</v>
       </c>
       <c r="D66">
-        <v>0.134116953915517</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1421956159036498</v>
+      </c>
+      <c r="E66">
+        <v>0.0668797305601443</v>
+      </c>
+      <c r="F66">
+        <v>-0.02889949003617725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06373276910295599</v>
+        <v>-0.05648261489708527</v>
       </c>
       <c r="C67">
-        <v>0.007153130664885711</v>
+        <v>0.004757142030986455</v>
       </c>
       <c r="D67">
-        <v>0.05445487040450413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05834239456020784</v>
+      </c>
+      <c r="E67">
+        <v>0.02525351053065771</v>
+      </c>
+      <c r="F67">
+        <v>0.03284922183190013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1110037817720799</v>
+        <v>-0.119983534283955</v>
       </c>
       <c r="C68">
-        <v>0.02834857380070226</v>
+        <v>0.03618064572076889</v>
       </c>
       <c r="D68">
-        <v>-0.2610931653111311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2578111860112451</v>
+      </c>
+      <c r="E68">
+        <v>-0.08799056492983269</v>
+      </c>
+      <c r="F68">
+        <v>-0.000394132021437115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03892637350981584</v>
+        <v>-0.03840987516025515</v>
       </c>
       <c r="C69">
-        <v>0.002698659300242744</v>
+        <v>0.001657841985187682</v>
       </c>
       <c r="D69">
-        <v>0.008264655987932577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009520656201973838</v>
+      </c>
+      <c r="E69">
+        <v>0.02819890915154794</v>
+      </c>
+      <c r="F69">
+        <v>0.0005649456290585166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0686922741088393</v>
+        <v>-0.06844669365802192</v>
       </c>
       <c r="C70">
-        <v>-0.02327359771148013</v>
+        <v>-0.02551327522212764</v>
       </c>
       <c r="D70">
-        <v>0.02543291885289525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03000982626994291</v>
+      </c>
+      <c r="E70">
+        <v>-0.02077874159938433</v>
+      </c>
+      <c r="F70">
+        <v>0.1846569633534789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1292550506199044</v>
+        <v>-0.140031387871718</v>
       </c>
       <c r="C71">
-        <v>0.03322413209698063</v>
+        <v>0.04105670646889702</v>
       </c>
       <c r="D71">
-        <v>-0.2765974576561933</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2681316192638674</v>
+      </c>
+      <c r="E71">
+        <v>-0.09874022749306351</v>
+      </c>
+      <c r="F71">
+        <v>-0.003828778623837691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1371979767513285</v>
+        <v>-0.143790468250745</v>
       </c>
       <c r="C72">
-        <v>0.03029475977255543</v>
+        <v>0.03033560896039957</v>
       </c>
       <c r="D72">
-        <v>0.0002978798949857949</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002166089261555502</v>
+      </c>
+      <c r="E72">
+        <v>0.04014829631998183</v>
+      </c>
+      <c r="F72">
+        <v>-0.02942743339891904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2013322209522764</v>
+        <v>-0.2031209139652151</v>
       </c>
       <c r="C73">
-        <v>0.01986658110203449</v>
+        <v>0.01591372885105981</v>
       </c>
       <c r="D73">
-        <v>0.01046257539402468</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01838826954064249</v>
+      </c>
+      <c r="E73">
+        <v>0.06363031642308038</v>
+      </c>
+      <c r="F73">
+        <v>-0.0458472007878663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08927176745503614</v>
+        <v>-0.0902865403307994</v>
       </c>
       <c r="C74">
-        <v>0.0151993615590079</v>
+        <v>0.01421274663778432</v>
       </c>
       <c r="D74">
-        <v>0.01235855921403089</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01644165821018461</v>
+      </c>
+      <c r="E74">
+        <v>0.04009221845789918</v>
+      </c>
+      <c r="F74">
+        <v>-0.05200103433845896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1328117846293728</v>
+        <v>-0.1249647245835742</v>
       </c>
       <c r="C75">
-        <v>0.03334772489138894</v>
+        <v>0.03106006160793223</v>
       </c>
       <c r="D75">
-        <v>0.02398207169576815</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03086284893053588</v>
+      </c>
+      <c r="E75">
+        <v>0.05582681450885901</v>
+      </c>
+      <c r="F75">
+        <v>-0.02239891399021336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08053133324241384</v>
+        <v>-0.09153380214806611</v>
       </c>
       <c r="C77">
-        <v>0.01490453030454653</v>
+        <v>0.009850091654787008</v>
       </c>
       <c r="D77">
-        <v>0.1141121184704832</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1177073412780657</v>
+      </c>
+      <c r="E77">
+        <v>0.04986453705420296</v>
+      </c>
+      <c r="F77">
+        <v>-0.03623743032568599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09963581104367959</v>
+        <v>-0.09999249622100895</v>
       </c>
       <c r="C78">
-        <v>0.04552330352545515</v>
+        <v>0.04132728151041257</v>
       </c>
       <c r="D78">
-        <v>0.1125034109824065</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.110648609617485</v>
+      </c>
+      <c r="E78">
+        <v>0.07528686749951854</v>
+      </c>
+      <c r="F78">
+        <v>-0.05537935149539418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1683506382008481</v>
+        <v>-0.1638122743489891</v>
       </c>
       <c r="C79">
-        <v>0.02912015372298725</v>
+        <v>0.02728051510247253</v>
       </c>
       <c r="D79">
-        <v>0.006932827514671052</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01462597663054506</v>
+      </c>
+      <c r="E79">
+        <v>0.04682149650315381</v>
+      </c>
+      <c r="F79">
+        <v>-0.01377899886171185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08075060086068463</v>
+        <v>-0.07952377855697559</v>
       </c>
       <c r="C80">
-        <v>0.003646323787019343</v>
+        <v>0.0009087914676835017</v>
       </c>
       <c r="D80">
-        <v>0.05526107294563217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05400014211863555</v>
+      </c>
+      <c r="E80">
+        <v>0.03853990275874846</v>
+      </c>
+      <c r="F80">
+        <v>0.02775446871199515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1195518410620514</v>
+        <v>-0.1143867293186446</v>
       </c>
       <c r="C81">
-        <v>0.03508190260465042</v>
+        <v>0.03401177026143893</v>
       </c>
       <c r="D81">
-        <v>0.005824709225596761</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01148815655214279</v>
+      </c>
+      <c r="E81">
+        <v>0.05072216689600738</v>
+      </c>
+      <c r="F81">
+        <v>-0.01814750863274115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1654661272606005</v>
+        <v>-0.16394780269653</v>
       </c>
       <c r="C82">
-        <v>0.0291708384223778</v>
+        <v>0.02886777918021836</v>
       </c>
       <c r="D82">
-        <v>0.006605400316688648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005419927679244619</v>
+      </c>
+      <c r="E82">
+        <v>0.0245893783956324</v>
+      </c>
+      <c r="F82">
+        <v>-0.0837315814439981</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05809759416668663</v>
+        <v>-0.0529780809971881</v>
       </c>
       <c r="C83">
-        <v>0.005377235646672989</v>
+        <v>0.003366359608665605</v>
       </c>
       <c r="D83">
-        <v>0.03602509818019502</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03835505077804882</v>
+      </c>
+      <c r="E83">
+        <v>-0.002158262093744635</v>
+      </c>
+      <c r="F83">
+        <v>0.03562601869808139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06087724245659014</v>
+        <v>-0.05611116877197679</v>
       </c>
       <c r="C84">
-        <v>0.01424770840759249</v>
+        <v>0.01126511447769666</v>
       </c>
       <c r="D84">
-        <v>0.07594022790584661</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07775247314423152</v>
+      </c>
+      <c r="E84">
+        <v>0.01414790419132172</v>
+      </c>
+      <c r="F84">
+        <v>-0.01649089954337698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1402394562941324</v>
+        <v>-0.1351294651270396</v>
       </c>
       <c r="C85">
-        <v>0.03281449363118165</v>
+        <v>0.03172822173175145</v>
       </c>
       <c r="D85">
-        <v>0.006125612994026727</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01042621580315978</v>
+      </c>
+      <c r="E85">
+        <v>0.03601913090765377</v>
+      </c>
+      <c r="F85">
+        <v>-0.04919911612041614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1004426393798416</v>
+        <v>-0.09194408505216795</v>
       </c>
       <c r="C86">
-        <v>-0.00151900724804197</v>
+        <v>-0.005202330427890397</v>
       </c>
       <c r="D86">
-        <v>0.01448263971676548</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05133778446670251</v>
+      </c>
+      <c r="E86">
+        <v>0.2404550040718608</v>
+      </c>
+      <c r="F86">
+        <v>0.8916750990386736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09307872147325971</v>
+        <v>-0.09047457566344848</v>
       </c>
       <c r="C87">
-        <v>0.02881184588500658</v>
+        <v>0.02102726831586585</v>
       </c>
       <c r="D87">
-        <v>0.07119572206093457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08982528842764974</v>
+      </c>
+      <c r="E87">
+        <v>-0.05870207776010326</v>
+      </c>
+      <c r="F87">
+        <v>-0.04908621210430619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06319886486738456</v>
+        <v>-0.06168996649488658</v>
       </c>
       <c r="C88">
-        <v>0.006607919558017358</v>
+        <v>0.003667392029809916</v>
       </c>
       <c r="D88">
-        <v>0.04954351805144127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05036218057894599</v>
+      </c>
+      <c r="E88">
+        <v>0.02767077408830651</v>
+      </c>
+      <c r="F88">
+        <v>-0.01437110465704951</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1218300420898619</v>
+        <v>-0.1302222307412768</v>
       </c>
       <c r="C89">
-        <v>0.0091486388509181</v>
+        <v>0.01643278630833081</v>
       </c>
       <c r="D89">
-        <v>-0.2370899966982853</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2395682373130356</v>
+      </c>
+      <c r="E89">
+        <v>-0.08963959039946884</v>
+      </c>
+      <c r="F89">
+        <v>0.009355175386516135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1405697230105953</v>
+        <v>-0.1548979703676245</v>
       </c>
       <c r="C90">
-        <v>0.02922205166007237</v>
+        <v>0.03776200870856301</v>
       </c>
       <c r="D90">
-        <v>-0.262806551248715</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2657176639888099</v>
+      </c>
+      <c r="E90">
+        <v>-0.1163171614241238</v>
+      </c>
+      <c r="F90">
+        <v>0.01047871056989234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1239379624169139</v>
+        <v>-0.1206405972799719</v>
       </c>
       <c r="C91">
-        <v>0.02354421157938724</v>
+        <v>0.02307464534087163</v>
       </c>
       <c r="D91">
-        <v>-0.02092683005660963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01556238923521276</v>
+      </c>
+      <c r="E91">
+        <v>0.05541074548579161</v>
+      </c>
+      <c r="F91">
+        <v>0.001120510979671412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1414536794356696</v>
+        <v>-0.148050189803599</v>
       </c>
       <c r="C92">
-        <v>0.0200989505876092</v>
+        <v>0.02873268556924246</v>
       </c>
       <c r="D92">
-        <v>-0.2911624560413051</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2903083390816403</v>
+      </c>
+      <c r="E92">
+        <v>-0.1032834849866066</v>
+      </c>
+      <c r="F92">
+        <v>0.02151812686122714</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1451510342456695</v>
+        <v>-0.1574597449643175</v>
       </c>
       <c r="C93">
-        <v>0.02576367770077684</v>
+        <v>0.0329234296149981</v>
       </c>
       <c r="D93">
-        <v>-0.2606693209986649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2599679575810546</v>
+      </c>
+      <c r="E93">
+        <v>-0.07426976659214427</v>
+      </c>
+      <c r="F93">
+        <v>-0.003807450153870105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1319114289592977</v>
+        <v>-0.1241721536917863</v>
       </c>
       <c r="C94">
-        <v>0.02954850366566542</v>
+        <v>0.02667634171902019</v>
       </c>
       <c r="D94">
-        <v>0.03794253469411192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04262779932821321</v>
+      </c>
+      <c r="E94">
+        <v>0.05676839127287851</v>
+      </c>
+      <c r="F94">
+        <v>-0.03305287434613611</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1263626517190824</v>
+        <v>-0.129003923782135</v>
       </c>
       <c r="C95">
-        <v>0.01171503134323777</v>
+        <v>0.00648879667355441</v>
       </c>
       <c r="D95">
-        <v>0.08937399138069616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1000823837831415</v>
+      </c>
+      <c r="E95">
+        <v>0.06162524013995544</v>
+      </c>
+      <c r="F95">
+        <v>-0.006107030346985657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1406187830851143</v>
+        <v>-0.1308545815979249</v>
       </c>
       <c r="C96">
-        <v>-0.9843912497949125</v>
+        <v>-0.9847054173319088</v>
       </c>
       <c r="D96">
-        <v>-0.02337209415144916</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05195158813504891</v>
+      </c>
+      <c r="E96">
+        <v>0.04749362888198762</v>
+      </c>
+      <c r="F96">
+        <v>-0.04330704401604005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1886494805033384</v>
+        <v>-0.1923175326659815</v>
       </c>
       <c r="C97">
-        <v>-0.0009871754031446703</v>
+        <v>-0.001658709358435791</v>
       </c>
       <c r="D97">
-        <v>-0.0297902014788381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0313139812793856</v>
+      </c>
+      <c r="E97">
+        <v>0.03928290910406045</v>
+      </c>
+      <c r="F97">
+        <v>0.117311646352634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1979198476246637</v>
+        <v>-0.2045112319798192</v>
       </c>
       <c r="C98">
-        <v>0.01469411275555115</v>
+        <v>0.01055953490001922</v>
       </c>
       <c r="D98">
-        <v>0.01297721331714735</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01468152013605201</v>
+      </c>
+      <c r="E98">
+        <v>-0.0805050201523974</v>
+      </c>
+      <c r="F98">
+        <v>0.09606869020793121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05681442278182514</v>
+        <v>-0.05628155058919084</v>
       </c>
       <c r="C99">
-        <v>-0.001074307508839475</v>
+        <v>-0.003037313821839583</v>
       </c>
       <c r="D99">
-        <v>0.03589925754441634</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04141308287104656</v>
+      </c>
+      <c r="E99">
+        <v>0.0273513363695596</v>
+      </c>
+      <c r="F99">
+        <v>-0.003105384223062984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1494453886235616</v>
+        <v>-0.1356134298317133</v>
       </c>
       <c r="C100">
-        <v>-0.03448279013961571</v>
+        <v>-0.04635404108194817</v>
       </c>
       <c r="D100">
-        <v>0.4044382142083941</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3660065894143103</v>
+      </c>
+      <c r="E100">
+        <v>-0.8759933031608997</v>
+      </c>
+      <c r="F100">
+        <v>0.1676383383924677</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02574003833333688</v>
+        <v>-0.02824820149558211</v>
       </c>
       <c r="C101">
-        <v>0.009751656516944355</v>
+        <v>0.009105371753026488</v>
       </c>
       <c r="D101">
-        <v>0.02964244757647003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02977574961462508</v>
+      </c>
+      <c r="E101">
+        <v>0.01732346520643326</v>
+      </c>
+      <c r="F101">
+        <v>0.01516241764319477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
